--- a/Unity/Assets/Config/Excel/GemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="GemConfigProto" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
@@ -945,9 +945,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1339,7 +1336,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1351,141 +1348,141 @@
     <col min="5" max="5" width="9.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="8" customWidth="1"/>
     <col min="7" max="7" width="34.875" style="6" customWidth="1"/>
-    <col min="8" max="16" width="9" style="9"/>
-    <col min="17" max="16384" width="9" style="10"/>
+    <col min="8" max="16" width="9" style="6"/>
+    <col min="17" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:16">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:16">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="6">

--- a/Unity/Assets/Config/Excel/GemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325"/>
+    <workbookView windowWidth="20175" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="GemConfigProto" sheetId="1" r:id="rId1"/>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
